--- a/数据表/Soldiers.xlsx
+++ b/数据表/Soldiers.xlsx
@@ -31,7 +31,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
-    <t>//注释,配置npc表的id</t>
+    <t>//注释,配置npc表的士兵id</t>
   </si>
   <si>
     <t>备注</t>
@@ -668,12 +668,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -992,7 +989,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1009,7 +1006,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
